--- a/sample.xlsx
+++ b/sample.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,9 +50,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -134,44 +135,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -198,32 +199,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -250,24 +233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,142 +244,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -424,534 +413,375 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E22"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>JLTomy</t>
+          <t>lestream</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18106</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19,11</t>
-        </is>
+        <v>8.539999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9486</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>on fou la hagra aux bastard !!!</t>
+          <t>LE RéCAP | lestream</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>JLTomy</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pauleta_Youtubeur</t>
+          <t>LaureBV</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7200</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7,60</t>
-        </is>
+        <v>5.86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6507</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DEBRIEF CHAMPIONS LEAGUE</t>
+          <t>PXLPerfect #3 : AVEC LAURE TWEEKZ LOX, FT. CHAP ET TOUCOUILLE</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pauleta_Youtubeur</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZeratoR</t>
+          <t>Sardoche</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6425</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6,78</t>
-        </is>
+        <v>4.33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4809</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Moi aussi je veux jouer à Timberborn, jeu de gestion avec des castors. C'est pas une opé mais tout le monde m'en parle omg alors j'essaye.</t>
+          <t>SARDOCHE - Aujourd'hui c'est le PB</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ZeratoR</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kaydop</t>
+          <t>AntoineDaniel</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5854</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6,18</t>
-        </is>
+        <v>4.05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4496</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>COACH DOP | Code créateur KAYDOP #EpicPartner | !g2a !bestof !subgoal</t>
+          <t>2EME LIVE D'APPRENTISSAGE DU CODE AVEC !lepermislibre #ad</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Kaydop</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mistermv</t>
+          <t>TheKAIRI78</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5,35</t>
-        </is>
+        <v>3.84</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4264</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>P'tites der'</t>
+          <t>FIFA 22 CONTRE JP</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>mistermv</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Locklear</t>
+          <t>JLAmaru</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3653</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3,86</t>
-        </is>
+        <v>3.56</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3948</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LES JEUX DE NO LIFE / D'INGENIEUR C'EST TERMINE !!! !gymshark</t>
+          <t>JL Amaru - On regarde des vidéos ! - !eneba</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Locklear</t>
-        </is>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DVM_Medja</t>
+          <t>Solary</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3276</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
+        <v>3.29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3649</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BADER LA CAILLÉ !eneba !nordvpn</t>
+          <t>WAKZ ADC HERO - DEBAT SUR LES COUPLES A 20H AVEC NARKUSS SAKOR &amp; JINKGO, JE VOUS PROMETS UN BANGER</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>DVM_Medja</t>
-        </is>
-      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JLBichouu</t>
+          <t>TraYtoNlol</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2679</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
+        <v>2.86</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3174</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Moha s'investit dans les affaires ! | !insta !twitter !eneba</t>
+          <t>TRAYTON - CHALLENGER SOLOQ PAS DE WORLDS AUJOURD'HUI :(</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>JLBichouu</t>
-        </is>
-      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mabzouel</t>
+          <t>Gotaga</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2353</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
+        <v>2.76</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3068</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>🌴DEMI DIEUX - 🎃EVENT HALLOWEEN WARZONE🌴 !video !astro</t>
+          <t>Séance BE INSANE avec la #GCorp !</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Mabzouel</t>
-        </is>
-      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Crocodyle_lol</t>
+          <t>Altair</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2310</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
+        <v>2.28</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2534</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CROCO • RETOUR NEW MOOD • DOUBLE MASTER  ( !rhinoshield )</t>
+          <t>🔞🎮 Découverte: l'heritier des Commandos ?🎮</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Crocodyle_lol</t>
-        </is>
-      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JLTomy</t>
+          <t>Low4n</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18106</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>19,11</t>
-        </is>
+        <v>1.78</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1975</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>on fou la hagra aux bastard !!!</t>
+          <t>LOWAN I wz avec la team I !firstblood</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>JLTomy</t>
-        </is>
-      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pauleta_Youtubeur</t>
+          <t>MarexLoL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7200</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7,60</t>
-        </is>
+        <v>1.74</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1930</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DEBRIEF CHAMPIONS LEAGUE</t>
+          <t>MAREX 🥵 OMG?! DE RETOUR - NOUVELLE TECH SUR SHACO O__O, Rush Triple GM+   !displate !build</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Pauleta_Youtubeur</t>
-        </is>
-      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ZeratoR</t>
+          <t>HugoDecrypte</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6425</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6,78</t>
-        </is>
+        <v>1.68</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1866</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Moi aussi je veux jouer à Timberborn, jeu de gestion avec des castors. C'est pas une opé mais tout le monde m'en parle omg alors j'essaye.</t>
+          <t>On s'informe, on fait des annonces... C'est le RDV avec la rédac' ! (non c'est pas un fond vert)</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ZeratoR</t>
-        </is>
-      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kaydop</t>
+          <t>SolaryHS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5854</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6,18</t>
-        </is>
+        <v>1.66</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1846</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>COACH DOP | Code créateur KAYDOP #EpicPartner | !g2a !bestof !subgoal</t>
+          <t>[FR] Deckdoctor!</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Kaydop</t>
-        </is>
-      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mistermv</t>
+          <t>otplol_</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5,35</t>
-        </is>
+        <v>1.61</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1791</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>P'tites der'</t>
+          <t>WORLDS 2021 - Groupe D - BO1</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>mistermv</t>
-        </is>
-      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Locklear</t>
+          <t>Phyzikk</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3653</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3,86</t>
-        </is>
+        <v>1.58</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1749</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LES JEUX DE NO LIFE / D'INGENIEUR C'EST TERMINE !!! !gymshark</t>
+          <t>🔥PHYZIK - NOUVELLE ARME WARZONE !prime !fnatic !vpn !event</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Locklear</t>
-        </is>
-      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DVM_Medja</t>
+          <t>mino7x_</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3276</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
+        <v>1.56</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1733</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BADER LA CAILLÉ !eneba !nordvpn</t>
+          <t>COOP + PACK OPENING !video !tactique !sub !prime</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>DVM_Medja</t>
-        </is>
-      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JLBichouu</t>
+          <t>chowh1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2679</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
+        <v>1.52</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1689</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Moha s'investit dans les affaires ! | !insta !twitter !eneba</t>
+          <t xml:space="preserve">🔥 Nouvelle Photo Instagram 🔥 !insta !21800 </t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>JLBichouu</t>
-        </is>
-      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mabzouel</t>
+          <t>WinamaxSport</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2353</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
+        <v>1.48</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1646</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>🌴DEMI DIEUX - 🎃EVENT HALLOWEEN WARZONE🌴 !video !astro</t>
+          <t>🔴 Le retour du Basket US ! Milwaukee, objectif back-to-back (Basket)</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Mabzouel</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Crocodyle_lol</t>
+          <t>Norby</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2310</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
+        <v>1.45</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1609</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CROCO • RETOUR NEW MOOD • DOUBLE MASTER  ( !rhinoshield )</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Crocodyle_lol</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2310</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>CROCO • RETOUR NEW MOOD • DOUBLE MASTER  ( !rhinoshield )</t>
+          <t>Halloween est arrivé sur Warzone !ig !planning</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1"/>
-    <mergeCell ref="A11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E21"/>
+  <dimension ref="B2:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,306 +424,288 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>lestream</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8.539999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="D2" t="n">
-        <v>9486</v>
+        <v>21543</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LE RéCAP | lestream</t>
+          <t>On fait les Donations Goals pour le ZEvent !</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>LaureBV</t>
+          <t>Gotaga</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.86</v>
+        <v>7.95</v>
       </c>
       <c r="D3" t="n">
-        <v>6507</v>
+        <v>18824</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PXLPerfect #3 : AVEC LAURE TWEEKZ LOX, FT. CHAP ET TOUCOUILLE</t>
+          <t>Soirée avec Lock, Henry &amp; Doig ! (je sais pas ce qu'on va faire mais ça a l'air lourd !)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sardoche</t>
+          <t>JLTomy</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.33</v>
+        <v>7.19</v>
       </c>
       <c r="D4" t="n">
-        <v>4809</v>
+        <v>17024</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SARDOCHE - Aujourd'hui c'est le PB</t>
+          <t>Wsh la rue !</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>AntoineDaniel</t>
+          <t>Kamet0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.05</v>
+        <v>5.95</v>
       </c>
       <c r="D5" t="n">
-        <v>4496</v>
+        <v>14080</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2EME LIVE D'APPRENTISSAGE DU CODE AVEC !lepermislibre #ad</t>
+          <t>REACT DE LA SOIRÉE HYPNOSE D'HIER 😵‍💫 (!prime)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>TheKAIRI78</t>
+          <t>mistermv</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.84</v>
+        <v>5.06</v>
       </c>
       <c r="D6" t="n">
-        <v>4264</v>
+        <v>11989</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FIFA 22 CONTRE JP</t>
+          <t>GAME OF ROLES S6E05 !darty</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>JLAmaru</t>
+          <t>WankilStudio</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.56</v>
+        <v>4.63</v>
       </c>
       <c r="D7" t="n">
-        <v>3948</v>
+        <v>10954</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>JL Amaru - On regarde des vidéos ! - !eneba</t>
+          <t>Laink et Terracid - Escape Gaaame ! (L&amp;T au cinoche vendredi ! ) !cinoche</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Solary</t>
+          <t>chowh1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.29</v>
+        <v>4.35</v>
       </c>
       <c r="D8" t="n">
-        <v>3649</v>
+        <v>10291</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WAKZ ADC HERO - DEBAT SUR LES COUPLES A 20H AVEC NARKUSS SAKOR &amp; JINKGO, JE VOUS PROMETS UN BANGER</t>
+          <t>🔥Nouvelle Photo Instagram 🔥ft Irvin Cardona !insta !21500</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TraYtoNlol</t>
+          <t>Joueur_du_Grenier</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.86</v>
+        <v>3.31</v>
       </c>
       <c r="D9" t="n">
-        <v>3174</v>
+        <v>7847</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TRAYTON - CHALLENGER SOLOQ PAS DE WORLDS AUJOURD'HUI :(</t>
+          <t>Le retour des UWU-7 sur Idol Manager</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gotaga</t>
+          <t>Locklear</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="D10" t="n">
-        <v>3068</v>
+        <v>7229</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Séance BE INSANE avec la #GCorp !</t>
+          <t>QUI DE NOUS 4 FT HENRY GOTAGA ET DOIGBY !gymshark</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Altair</t>
+          <t>AntoineDaniel</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="D11" t="n">
-        <v>2534</v>
+        <v>5791</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>🔞🎮 Découverte: l'heritier des Commandos ?🎮</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Low4n</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1975</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LOWAN I wz avec la team I !firstblood</t>
+          <t>2EME LIVE D'APPRENTISSAGE DU CODE AVEC !lepermislibre #ad</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>MarexLoL</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.74</v>
+        <v>9.1</v>
       </c>
       <c r="D13" t="n">
-        <v>1930</v>
+        <v>21543</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MAREX 🥵 OMG?! DE RETOUR - NOUVELLE TECH SUR SHACO O__O, Rush Triple GM+   !displate !build</t>
+          <t>On fait les Donations Goals pour le ZEvent !</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>HugoDecrypte</t>
+          <t>Gotaga</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.68</v>
+        <v>7.95</v>
       </c>
       <c r="D14" t="n">
-        <v>1866</v>
+        <v>18824</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>On s'informe, on fait des annonces... C'est le RDV avec la rédac' ! (non c'est pas un fond vert)</t>
+          <t>Soirée avec Lock, Henry &amp; Doig ! (je sais pas ce qu'on va faire mais ça a l'air lourd !)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>SolaryHS</t>
+          <t>JLTomy</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.66</v>
+        <v>7.19</v>
       </c>
       <c r="D15" t="n">
-        <v>1846</v>
+        <v>17024</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[FR] Deckdoctor!</t>
+          <t>Wsh la rue !</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>otplol_</t>
+          <t>Kamet0</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.61</v>
+        <v>5.95</v>
       </c>
       <c r="D16" t="n">
-        <v>1791</v>
+        <v>14080</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WORLDS 2021 - Groupe D - BO1</t>
+          <t>REACT DE LA SOIRÉE HYPNOSE D'HIER 😵‍💫 (!prime)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Phyzikk</t>
+          <t>mistermv</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.58</v>
+        <v>5.06</v>
       </c>
       <c r="D17" t="n">
-        <v>1749</v>
+        <v>11989</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>🔥PHYZIK - NOUVELLE ARME WARZONE !prime !fnatic !vpn !event</t>
+          <t>GAME OF ROLES S6E05 !darty</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>mino7x_</t>
+          <t>WankilStudio</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.56</v>
+        <v>4.63</v>
       </c>
       <c r="D18" t="n">
-        <v>1733</v>
+        <v>10954</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>COOP + PACK OPENING !video !tactique !sub !prime</t>
+          <t>Laink et Terracid - Escape Gaaame ! (L&amp;T au cinoche vendredi ! ) !cinoche</t>
         </is>
       </c>
     </row>
@@ -734,50 +716,608 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.52</v>
+        <v>4.35</v>
       </c>
       <c r="D19" t="n">
-        <v>1689</v>
+        <v>10291</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">🔥 Nouvelle Photo Instagram 🔥 !insta !21800 </t>
+          <t>🔥Nouvelle Photo Instagram 🔥ft Irvin Cardona !insta !21500</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>WinamaxSport</t>
+          <t>Joueur_du_Grenier</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.48</v>
+        <v>3.31</v>
       </c>
       <c r="D20" t="n">
-        <v>1646</v>
+        <v>7847</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>🔴 Le retour du Basket US ! Milwaukee, objectif back-to-back (Basket)</t>
+          <t>Le retour des UWU-7 sur Idol Manager</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Norby</t>
+          <t>Locklear</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.45</v>
+        <v>3.05</v>
       </c>
       <c r="D21" t="n">
-        <v>1609</v>
+        <v>7229</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Halloween est arrivé sur Warzone !ig !planning</t>
+          <t>QUI DE NOUS 4 FT HENRY GOTAGA ET DOIGBY !gymshark</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AntoineDaniel</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5791</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2EME LIVE D'APPRENTISSAGE DU CODE AVEC !lepermislibre #ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>21543</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>On fait les Donations Goals pour le ZEvent !</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Gotaga</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="D25" t="n">
+        <v>18824</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Soirée avec Lock, Henry &amp; Doig ! (je sais pas ce qu'on va faire mais ça a l'air lourd !)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>JLTomy</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="D26" t="n">
+        <v>17024</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Wsh la rue !</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Kamet0</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14080</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>REACT DE LA SOIRÉE HYPNOSE D'HIER 😵‍💫 (!prime)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>mistermv</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11989</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>GAME OF ROLES S6E05 !darty</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>WankilStudio</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10954</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Laink et Terracid - Escape Gaaame ! (L&amp;T au cinoche vendredi ! ) !cinoche</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>chowh1</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10291</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>🔥Nouvelle Photo Instagram 🔥ft Irvin Cardona !insta !21500</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Joueur_du_Grenier</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7847</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Le retour des UWU-7 sur Idol Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Locklear</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7229</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>QUI DE NOUS 4 FT HENRY GOTAGA ET DOIGBY !gymshark</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AntoineDaniel</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5791</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2EME LIVE D'APPRENTISSAGE DU CODE AVEC !lepermislibre #ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>21543</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>On fait les Donations Goals pour le ZEvent !</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Gotaga</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="D36" t="n">
+        <v>18824</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Soirée avec Lock, Henry &amp; Doig ! (je sais pas ce qu'on va faire mais ça a l'air lourd !)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>JLTomy</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="D37" t="n">
+        <v>17024</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Wsh la rue !</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Kamet0</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D38" t="n">
+        <v>14080</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>REACT DE LA SOIRÉE HYPNOSE D'HIER 😵‍💫 (!prime)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>mistermv</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11989</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>GAME OF ROLES S6E05 !darty</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>WankilStudio</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10954</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Laink et Terracid - Escape Gaaame ! (L&amp;T au cinoche vendredi ! ) !cinoche</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>chowh1</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10291</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>🔥Nouvelle Photo Instagram 🔥ft Irvin Cardona !insta !21500</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Joueur_du_Grenier</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7847</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Le retour des UWU-7 sur Idol Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Locklear</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7229</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>QUI DE NOUS 4 FT HENRY GOTAGA ET DOIGBY !gymshark</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AntoineDaniel</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5850</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2EME LIVE D'APPRENTISSAGE DU CODE AVEC !lepermislibre #ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="D46" t="n">
+        <v>21543</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>On fait les Donations Goals pour le ZEvent !</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Gotaga</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="D47" t="n">
+        <v>18824</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Soirée avec Lock, Henry &amp; Doig ! (je sais pas ce qu'on va faire mais ça a l'air lourd !)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>JLTomy</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="D48" t="n">
+        <v>17024</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Wsh la rue !</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Kamet0</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="D49" t="n">
+        <v>14601</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>REACT DE LA SOIRÉE HYPNOSE D'HIER 😵‍💫 (!prime)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>mistermv</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11989</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>GAME OF ROLES S6E05 !darty</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>WankilStudio</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10954</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Laink et Terracid - Escape Gaaame ! (L&amp;T au cinoche vendredi ! ) !cinoche</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>chowh1</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10419</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>🔥Nouvelle Photo Instagram 🔥ft Irvin Cardona !insta !21500</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Joueur_du_Grenier</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7847</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Le retour des UWU-7 sur Idol Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Locklear</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7229</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>QUI DE NOUS 4 FT HENRY GOTAGA ET DOIGBY !gymshark</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>AntoineDaniel</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5850</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2EME LIVE D'APPRENTISSAGE DU CODE AVEC !lepermislibre #ad</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E55"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,900 +424,360 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>mistermv</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.1</v>
+        <v>11.11</v>
       </c>
       <c r="D2" t="n">
-        <v>21543</v>
+        <v>17028</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>On fait les Donations Goals pour le ZEvent !</t>
+          <t>Jeux Made In France #JMF21 4 journées de JV français !</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gotaga</t>
+          <t>JLAmaru</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.95</v>
+        <v>6.43</v>
       </c>
       <c r="D3" t="n">
-        <v>18824</v>
+        <v>9845</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Soirée avec Lock, Henry &amp; Doig ! (je sais pas ce qu'on va faire mais ça a l'air lourd !)</t>
+          <t>JL Amaru - On discute ensemble - !eneba</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>JLTomy</t>
+          <t>chowh1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.19</v>
+        <v>5.68</v>
       </c>
       <c r="D4" t="n">
-        <v>17024</v>
+        <v>8697</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Wsh la rue !</t>
+          <t xml:space="preserve">🔥 NEW ALERTE x20 🔥 !vpn </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kamet0</t>
+          <t>Gotaga</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.95</v>
+        <v>5.2</v>
       </c>
       <c r="D5" t="n">
-        <v>14080</v>
+        <v>7966</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>REACT DE LA SOIRÉE HYPNOSE D'HIER 😵‍💫 (!prime)</t>
+          <t>Let's go throw le FUT Champ :D</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>mistermv</t>
+          <t>otplol_</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.06</v>
+        <v>4.71</v>
       </c>
       <c r="D6" t="n">
-        <v>11989</v>
+        <v>7218</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GAME OF ROLES S6E05 !darty</t>
+          <t>WORLDS 1/4 de finale - T1 vs HLE - BO5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>WankilStudio</t>
+          <t>Sardoche</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.63</v>
+        <v>3.59</v>
       </c>
       <c r="D7" t="n">
-        <v>10954</v>
+        <v>5507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Laink et Terracid - Escape Gaaame ! (L&amp;T au cinoche vendredi ! ) !cinoche</t>
+          <t>SARDOCHE - Objectif sub 2h00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>chowh1</t>
+          <t>lestream</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.35</v>
+        <v>3.28</v>
       </c>
       <c r="D8" t="n">
-        <v>10291</v>
+        <v>5027</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>🔥Nouvelle Photo Instagram 🔥ft Irvin Cardona !insta !21500</t>
+          <t>LA CUISINE avec SORA &amp; LOUIS SAN | lestream !sw</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Joueur_du_Grenier</t>
+          <t>Solary</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="D9" t="n">
-        <v>7847</v>
+        <v>5002</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Le retour des UWU-7 sur Idol Manager</t>
+          <t>Killer Party IRL - Soirée Halloween x Lutti</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Locklear</t>
+          <t>SolaryFortnite</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.05</v>
+        <v>2.41</v>
       </c>
       <c r="D10" t="n">
-        <v>7229</v>
+        <v>3686</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>QUI DE NOUS 4 FT HENRY GOTAGA ET DOIGBY !gymshark</t>
+          <t>[FR] FNCS trio : Floki Clement EMXXRR Magl BlastR Hunter | Cast Yoshi &amp; Kiroko</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>AntoineDaniel</t>
+          <t>TraYtoNlol</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.45</v>
+        <v>2.18</v>
       </c>
       <c r="D11" t="n">
-        <v>5791</v>
+        <v>3342</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2EME LIVE D'APPRENTISSAGE DU CODE AVEC !lepermislibre #ad</t>
+          <t>TRAYTON - SOLOQ GRAND MASTER ON PASSE VOIR LES MEILLEURS JOUEURS D'EUROPE !</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BruceGrannec</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2893</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>⚽️ FUT CHAMPIONS &amp; PACK OPENING !</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Nikof</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9.1</v>
+        <v>1.73</v>
       </c>
       <c r="D13" t="n">
-        <v>21543</v>
+        <v>2651</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>On fait les Donations Goals pour le ZEvent !</t>
+          <t>FNCS WEEK 2 | 2mins Delay | NEW !subgoal | Code Nikof #ad | !insta !twitter !youtube !tiktok</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gotaga</t>
+          <t>Teuf</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7.95</v>
+        <v>1.71</v>
       </c>
       <c r="D14" t="n">
-        <v>18824</v>
+        <v>2625</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Soirée avec Lock, Henry &amp; Doig ! (je sais pas ce qu'on va faire mais ça a l'air lourd !)</t>
+          <t xml:space="preserve">Start 20.000€ ⚡️ REJOINS LE DISCORD </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>JLTomy</t>
+          <t>Jolavanille</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7.19</v>
+        <v>1.66</v>
       </c>
       <c r="D15" t="n">
-        <v>17024</v>
+        <v>2543</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Wsh la rue !</t>
+          <t>Jordane 🏆 | FNCS OPEN w/Limo &amp; Mezo [GAME 4] | SUB=DANSE | (!discord) (!tiktok) (!kinguin) (!twitter) (!video)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kamet0</t>
+          <t>Altair</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.95</v>
+        <v>1.49</v>
       </c>
       <c r="D16" t="n">
-        <v>14080</v>
+        <v>2282</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>REACT DE LA SOIRÉE HYPNOSE D'HIER 😵‍💫 (!prime)</t>
+          <t>🔞🎮 Quetes Légendaires Lance/Epee/Shield 🎮 (Elyon ce soir)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>mistermv</t>
+          <t>JeanMassiet</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.06</v>
+        <v>1.38</v>
       </c>
       <c r="D17" t="n">
-        <v>11989</v>
+        <v>2113</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GAME OF ROLES S6E05 !darty</t>
+          <t>Debrief Backseat + ZEVENT FAUT QU'ON DISCUTE !</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>WankilStudio</t>
+          <t>MoMaN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.63</v>
+        <v>1.34</v>
       </c>
       <c r="D18" t="n">
-        <v>10954</v>
+        <v>2050</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Laink et Terracid - Escape Gaaame ! (L&amp;T au cinoche vendredi ! ) !cinoche</t>
+          <t>[GTA RP - Serv: Faily V] S.07 - EP.09 : ?</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>chowh1</t>
+          <t>Colas_Bim</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.35</v>
+        <v>1.32</v>
       </c>
       <c r="D19" t="n">
-        <v>10291</v>
+        <v>2029</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>🔥Nouvelle Photo Instagram 🔥ft Irvin Cardona !insta !21500</t>
+          <t>DESSIN PUIS GAMING - !matos !inktober !Displate</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Joueur_du_Grenier</t>
+          <t>kinstaar</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.31</v>
+        <v>1.16</v>
       </c>
       <c r="D20" t="n">
-        <v>7847</v>
+        <v>1771</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Le retour des UWU-7 sur Idol Manager</t>
+          <t>[!drops:ON✅] Serveur: Andromeda Faction: ONTARI | ❗️elyondiscord - ❗️clan - ❗️elyon - ❗️ytb - ❗️myprotein - ❗️pc</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Locklear</t>
+          <t>YoMax</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.05</v>
+        <v>1.14</v>
       </c>
       <c r="D21" t="n">
-        <v>7229</v>
+        <v>1749</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>QUI DE NOUS 4 FT HENRY GOTAGA ET DOIGBY !gymshark</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>AntoineDaniel</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5791</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2EME LIVE D'APPRENTISSAGE DU CODE AVEC !lepermislibre #ad</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>21543</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>On fait les Donations Goals pour le ZEvent !</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Gotaga</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="D25" t="n">
-        <v>18824</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Soirée avec Lock, Henry &amp; Doig ! (je sais pas ce qu'on va faire mais ça a l'air lourd !)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>JLTomy</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="D26" t="n">
-        <v>17024</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Wsh la rue !</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Kamet0</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D27" t="n">
-        <v>14080</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>REACT DE LA SOIRÉE HYPNOSE D'HIER 😵‍💫 (!prime)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>mistermv</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="D28" t="n">
-        <v>11989</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>GAME OF ROLES S6E05 !darty</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>WankilStudio</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="D29" t="n">
-        <v>10954</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Laink et Terracid - Escape Gaaame ! (L&amp;T au cinoche vendredi ! ) !cinoche</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>chowh1</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D30" t="n">
-        <v>10291</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>🔥Nouvelle Photo Instagram 🔥ft Irvin Cardona !insta !21500</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Joueur_du_Grenier</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="D31" t="n">
-        <v>7847</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Le retour des UWU-7 sur Idol Manager</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Locklear</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="D32" t="n">
-        <v>7229</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>QUI DE NOUS 4 FT HENRY GOTAGA ET DOIGBY !gymshark</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>AntoineDaniel</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="D33" t="n">
-        <v>5791</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2EME LIVE D'APPRENTISSAGE DU CODE AVEC !lepermislibre #ad</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>21543</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>On fait les Donations Goals pour le ZEvent !</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Gotaga</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="D36" t="n">
-        <v>18824</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Soirée avec Lock, Henry &amp; Doig ! (je sais pas ce qu'on va faire mais ça a l'air lourd !)</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>JLTomy</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="D37" t="n">
-        <v>17024</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Wsh la rue !</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Kamet0</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D38" t="n">
-        <v>14080</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>REACT DE LA SOIRÉE HYPNOSE D'HIER 😵‍💫 (!prime)</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>mistermv</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="D39" t="n">
-        <v>11989</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>GAME OF ROLES S6E05 !darty</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>WankilStudio</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="D40" t="n">
-        <v>10954</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Laink et Terracid - Escape Gaaame ! (L&amp;T au cinoche vendredi ! ) !cinoche</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>chowh1</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D41" t="n">
-        <v>10291</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>🔥Nouvelle Photo Instagram 🔥ft Irvin Cardona !insta !21500</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Joueur_du_Grenier</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="D42" t="n">
-        <v>7847</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Le retour des UWU-7 sur Idol Manager</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Locklear</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="D43" t="n">
-        <v>7229</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>QUI DE NOUS 4 FT HENRY GOTAGA ET DOIGBY !gymshark</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>AntoineDaniel</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="D44" t="n">
-        <v>5850</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>2EME LIVE D'APPRENTISSAGE DU CODE AVEC !lepermislibre #ad</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="D46" t="n">
-        <v>21543</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>On fait les Donations Goals pour le ZEvent !</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Gotaga</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="D47" t="n">
-        <v>18824</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Soirée avec Lock, Henry &amp; Doig ! (je sais pas ce qu'on va faire mais ça a l'air lourd !)</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>JLTomy</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="D48" t="n">
-        <v>17024</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Wsh la rue !</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Kamet0</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="D49" t="n">
-        <v>14601</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>REACT DE LA SOIRÉE HYPNOSE D'HIER 😵‍💫 (!prime)</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>mistermv</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="D50" t="n">
-        <v>11989</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>GAME OF ROLES S6E05 !darty</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>WankilStudio</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="D51" t="n">
-        <v>10954</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Laink et Terracid - Escape Gaaame ! (L&amp;T au cinoche vendredi ! ) !cinoche</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>chowh1</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="D52" t="n">
-        <v>10419</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>🔥Nouvelle Photo Instagram 🔥ft Irvin Cardona !insta !21500</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Joueur_du_Grenier</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D53" t="n">
-        <v>7847</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Le retour des UWU-7 sur Idol Manager</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Locklear</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="D54" t="n">
-        <v>7229</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>QUI DE NOUS 4 FT HENRY GOTAGA ET DOIGBY !gymshark</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>AntoineDaniel</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="D55" t="n">
-        <v>5850</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2EME LIVE D'APPRENTISSAGE DU CODE AVEC !lepermislibre #ad</t>
+          <t>PACK OPENING RTTK 2 + FUT CHAMPIONS IFY !!!</t>
         </is>
       </c>
     </row>
